--- a/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/04012026.xlsx
+++ b/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/04012026.xlsx
@@ -1,117 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet sheetId="1" name="Evangelio y Oraciones" state="visible" r:id="rId4"/>
+    <sheet name="Evangelio y Oraciones" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames/>
+  <calcPr calcId="171027" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
-  <si>
-    <t>NOMBRES</t>
-  </si>
-  <si>
-    <t>APELLIDO_PATERNO</t>
-  </si>
-  <si>
-    <t>APELLIDO_MATERNO</t>
-  </si>
-  <si>
-    <t>CELULAR</t>
-  </si>
-  <si>
-    <t>MAIL</t>
-  </si>
-  <si>
-    <t>CORREO</t>
-  </si>
-  <si>
-    <t>SMS</t>
-  </si>
-  <si>
-    <t>WHATSAPP</t>
-  </si>
-  <si>
-    <t>TEXTO_MENSAJE</t>
-  </si>
-  <si>
-    <t>Alejandro</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>56994148421</t>
-  </si>
-  <si>
-    <t>lucesalejandro3@gmail.com</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">domingo, 4 de enero de 2026
-*Evangelio del Día*
-Lectura del santo evangelio según san Mateo
-Mateo 2, 1-12 Jesús nació en Belén de Judá, en tiempos del rey Herodes. Unos magos de oriente llegaron entonces a Jerusalén y preguntaron: “¿Dónde está el rey de los judíos que acaba de nacer? Porque vimos surgir su estrella y hemos venido a adorarlo”. Al enterarse de esto, el rey Herodes se sobresaltó y toda Jerusalén con él. Convocó entonces a los sumos sacerdotes y a los escribas del pueblo y les preguntó dónde tenía que nacer el Mesías. Ellos le contestaron: “En Belén de Judá, porque así lo ha escrito el profeta: Y tú, Belén, tierra de Judá, no eres en manera alguna la menor entre las ciudades ilustres de Judá, pues de ti saldrá un jefe, que será el pastor de mi pueblo, Israel”. Entonces Herodes llamó en secreto a los magos, para que le precisaran el tiempo en que se les había aparecido la estrella y los mandó a Belén, diciéndoles: “Vayan a averiguar cuidadosamente qué hay de ese niño y, cuando lo encuentren, avísenme para que yo también vaya a adorarlo”. Después de oír al rey, los magos se pusieron en camino, y de pronto la estrella que habían visto surgir, comenzó a guiarlos, hasta que se detuvo encima de donde estaba el niño. Al ver de nuevo la estrella, se llenaron de inmensa alegría. Entraron en la casa y vieron al niño con María, su madre, y postrándose, lo adoraron. Después, abriendo sus cofres, le ofrecieron regalos: oro, incienso y mirra. Advertidos durante el sueño de que no volvieran a Herodes, regresaron a su tierra por otro camino.
-*Oración de la mañana*
-Amado Jesús, que en la humildad de Belén te hiciste presente entre nosotros, ilumina nuestra jornada con la luz de tu amor y tu misericordia. Ayúdanos a reconocerte en los pequeños detalles de la vida, y a adorarte en cada encuentro, cada gesto de bondad y cada palabra de aliento.
-Padre Celestial, con el amanecer de este nuevo día, te damos gracias por tu amor constante y por la promesa de salvación que nos has hecho a través de tu Hijo. Ayúdanos a buscar con determinación y fe, igual que los Magos, la presencia de Jesús en nuestras vidas y a ofrecerle, como ellos, los regalos de nuestro amor y servicio.
-Espíritu Santo, brújula divina que nos guías en nuestro camino, danos la sabiduría para discernir la dirección correcta en nuestras decisiones y la fortaleza para evitar los caminos que nos alejan de nuestra misión. Infunde en nosotros la alegría de los magos al encontrar a Jesús, para que con amor y gratitud, podamos compartir esa alegría con los demás.
-En la confianza de tu amor y misericordia, te lo pedimos. Amén.</t>
-  </si>
-  <si>
-    <t>Omar</t>
-  </si>
-  <si>
-    <t>56973223070</t>
-  </si>
-  <si>
-    <t>Mama</t>
-  </si>
-  <si>
-    <t>56971748545</t>
-  </si>
-  <si>
-    <t>Victor</t>
-  </si>
-  <si>
-    <t>56931123918</t>
-  </si>
-  <si>
-    <t>Yume</t>
-  </si>
-  <si>
-    <t>584146711206</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <color theme="1"/>
-      <family val="2"/>
+      <sz val="11"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -135,28 +51,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -481,193 +456,447 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0"/>
   <cols>
-    <col min="1" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="100" style="1" customWidth="1"/>
+    <col width="20" customWidth="1" min="1" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="8"/>
+    <col width="100" customWidth="1" style="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="1" s="2">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>NOMBRES</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>APELLIDO_PATERNO</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>APELLIDO_MATERNO</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>CELULAR</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>MAIL</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>CORREO</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>SMS</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>WHATSAPP</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>TEXTO_MENSAJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="150" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Alejandro</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56994148421</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>domingo, 4 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 2, 1-12 Jesús nació en Belén de Judá, en tiempos del rey Herodes. Unos magos de oriente llegaron entonces a Jerusalén y preguntaron: “¿Dónde está el rey de los judíos que acaba de nacer? Porque vimos surgir su estrella y hemos venido a adorarlo”. Al enterarse de esto, el rey Herodes se sobresaltó y toda Jerusalén con él. Convocó entonces a los sumos sacerdotes y a los escribas del pueblo y les preguntó dónde tenía que nacer el Mesías. Ellos le contestaron: “En Belén de Judá, porque así lo ha escrito el profeta: Y tú, Belén, tierra de Judá, no eres en manera alguna la menor entre las ciudades ilustres de Judá, pues de ti saldrá un jefe, que será el pastor de mi pueblo, Israel”. Entonces Herodes llamó en secreto a los magos, para que le precisaran el tiempo en que se les había aparecido la estrella y los mandó a Belén, diciéndoles: “Vayan a averiguar cuidadosamente qué hay de ese niño y, cuando lo encuentren, avísenme para que yo también vaya a adorarlo”. Después de oír al rey, los magos se pusieron en camino, y de pronto la estrella que habían visto surgir, comenzó a guiarlos, hasta que se detuvo encima de donde estaba el niño. Al ver de nuevo la estrella, se llenaron de inmensa alegría. Entraron en la casa y vieron al niño con María, su madre, y postrándose, lo adoraron. Después, abriendo sus cofres, le ofrecieron regalos: oro, incienso y mirra. Advertidos durante el sueño de que no volvieran a Herodes, regresaron a su tierra por otro camino.
+*Oración de la mañana*
+Amado Jesús, que en la humildad de Belén te hiciste presente entre nosotros, ilumina nuestra jornada con la luz de tu amor y tu misericordia. Ayúdanos a reconocerte en los pequeños detalles de la vida, y a adorarte en cada encuentro, cada gesto de bondad y cada palabra de aliento.
+Padre Celestial, con el amanecer de este nuevo día, te damos gracias por tu amor constante y por la promesa de salvación que nos has hecho a través de tu Hijo. Ayúdanos a buscar con determinación y fe, igual que los Magos, la presencia de Jesús en nuestras vidas y a ofrecerle, como ellos, los regalos de nuestro amor y servicio.
+Espíritu Santo, brújula divina que nos guías en nuestro camino, danos la sabiduría para discernir la dirección correcta en nuestras decisiones y la fortaleza para evitar los caminos que nos alejan de nuestra misión. Infunde en nosotros la alegría de los magos al encontrar a Jesús, para que con amor y gratitud, podamos compartir esa alegría con los demás.
+En la confianza de tu amor y misericordia, te lo pedimos. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="2" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
+    <row r="3" ht="150" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Omar</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56973223070</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>domingo, 4 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 2, 1-12 Jesús nació en Belén de Judá, en tiempos del rey Herodes. Unos magos de oriente llegaron entonces a Jerusalén y preguntaron: “¿Dónde está el rey de los judíos que acaba de nacer? Porque vimos surgir su estrella y hemos venido a adorarlo”. Al enterarse de esto, el rey Herodes se sobresaltó y toda Jerusalén con él. Convocó entonces a los sumos sacerdotes y a los escribas del pueblo y les preguntó dónde tenía que nacer el Mesías. Ellos le contestaron: “En Belén de Judá, porque así lo ha escrito el profeta: Y tú, Belén, tierra de Judá, no eres en manera alguna la menor entre las ciudades ilustres de Judá, pues de ti saldrá un jefe, que será el pastor de mi pueblo, Israel”. Entonces Herodes llamó en secreto a los magos, para que le precisaran el tiempo en que se les había aparecido la estrella y los mandó a Belén, diciéndoles: “Vayan a averiguar cuidadosamente qué hay de ese niño y, cuando lo encuentren, avísenme para que yo también vaya a adorarlo”. Después de oír al rey, los magos se pusieron en camino, y de pronto la estrella que habían visto surgir, comenzó a guiarlos, hasta que se detuvo encima de donde estaba el niño. Al ver de nuevo la estrella, se llenaron de inmensa alegría. Entraron en la casa y vieron al niño con María, su madre, y postrándose, lo adoraron. Después, abriendo sus cofres, le ofrecieron regalos: oro, incienso y mirra. Advertidos durante el sueño de que no volvieran a Herodes, regresaron a su tierra por otro camino.
+*Oración de la mañana*
+Amado Jesús, que en la humildad de Belén te hiciste presente entre nosotros, ilumina nuestra jornada con la luz de tu amor y tu misericordia. Ayúdanos a reconocerte en los pequeños detalles de la vida, y a adorarte en cada encuentro, cada gesto de bondad y cada palabra de aliento.
+Padre Celestial, con el amanecer de este nuevo día, te damos gracias por tu amor constante y por la promesa de salvación que nos has hecho a través de tu Hijo. Ayúdanos a buscar con determinación y fe, igual que los Magos, la presencia de Jesús en nuestras vidas y a ofrecerle, como ellos, los regalos de nuestro amor y servicio.
+Espíritu Santo, brújula divina que nos guías en nuestro camino, danos la sabiduría para discernir la dirección correcta en nuestras decisiones y la fortaleza para evitar los caminos que nos alejan de nuestra misión. Infunde en nosotros la alegría de los magos al encontrar a Jesús, para que con amor y gratitud, podamos compartir esa alegría con los demás.
+En la confianza de tu amor y misericordia, te lo pedimos. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="3" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
+    <row r="4" ht="150" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mama</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56971748545</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>domingo, 4 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 2, 1-12 Jesús nació en Belén de Judá, en tiempos del rey Herodes. Unos magos de oriente llegaron entonces a Jerusalén y preguntaron: “¿Dónde está el rey de los judíos que acaba de nacer? Porque vimos surgir su estrella y hemos venido a adorarlo”. Al enterarse de esto, el rey Herodes se sobresaltó y toda Jerusalén con él. Convocó entonces a los sumos sacerdotes y a los escribas del pueblo y les preguntó dónde tenía que nacer el Mesías. Ellos le contestaron: “En Belén de Judá, porque así lo ha escrito el profeta: Y tú, Belén, tierra de Judá, no eres en manera alguna la menor entre las ciudades ilustres de Judá, pues de ti saldrá un jefe, que será el pastor de mi pueblo, Israel”. Entonces Herodes llamó en secreto a los magos, para que le precisaran el tiempo en que se les había aparecido la estrella y los mandó a Belén, diciéndoles: “Vayan a averiguar cuidadosamente qué hay de ese niño y, cuando lo encuentren, avísenme para que yo también vaya a adorarlo”. Después de oír al rey, los magos se pusieron en camino, y de pronto la estrella que habían visto surgir, comenzó a guiarlos, hasta que se detuvo encima de donde estaba el niño. Al ver de nuevo la estrella, se llenaron de inmensa alegría. Entraron en la casa y vieron al niño con María, su madre, y postrándose, lo adoraron. Después, abriendo sus cofres, le ofrecieron regalos: oro, incienso y mirra. Advertidos durante el sueño de que no volvieran a Herodes, regresaron a su tierra por otro camino.
+*Oración de la mañana*
+Amado Jesús, que en la humildad de Belén te hiciste presente entre nosotros, ilumina nuestra jornada con la luz de tu amor y tu misericordia. Ayúdanos a reconocerte en los pequeños detalles de la vida, y a adorarte en cada encuentro, cada gesto de bondad y cada palabra de aliento.
+Padre Celestial, con el amanecer de este nuevo día, te damos gracias por tu amor constante y por la promesa de salvación que nos has hecho a través de tu Hijo. Ayúdanos a buscar con determinación y fe, igual que los Magos, la presencia de Jesús en nuestras vidas y a ofrecerle, como ellos, los regalos de nuestro amor y servicio.
+Espíritu Santo, brújula divina que nos guías en nuestro camino, danos la sabiduría para discernir la dirección correcta en nuestras decisiones y la fortaleza para evitar los caminos que nos alejan de nuestra misión. Infunde en nosotros la alegría de los magos al encontrar a Jesús, para que con amor y gratitud, podamos compartir esa alegría con los demás.
+En la confianza de tu amor y misericordia, te lo pedimos. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="4" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
+    <row r="5" ht="150" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56931123918</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>domingo, 4 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 2, 1-12 Jesús nació en Belén de Judá, en tiempos del rey Herodes. Unos magos de oriente llegaron entonces a Jerusalén y preguntaron: “¿Dónde está el rey de los judíos que acaba de nacer? Porque vimos surgir su estrella y hemos venido a adorarlo”. Al enterarse de esto, el rey Herodes se sobresaltó y toda Jerusalén con él. Convocó entonces a los sumos sacerdotes y a los escribas del pueblo y les preguntó dónde tenía que nacer el Mesías. Ellos le contestaron: “En Belén de Judá, porque así lo ha escrito el profeta: Y tú, Belén, tierra de Judá, no eres en manera alguna la menor entre las ciudades ilustres de Judá, pues de ti saldrá un jefe, que será el pastor de mi pueblo, Israel”. Entonces Herodes llamó en secreto a los magos, para que le precisaran el tiempo en que se les había aparecido la estrella y los mandó a Belén, diciéndoles: “Vayan a averiguar cuidadosamente qué hay de ese niño y, cuando lo encuentren, avísenme para que yo también vaya a adorarlo”. Después de oír al rey, los magos se pusieron en camino, y de pronto la estrella que habían visto surgir, comenzó a guiarlos, hasta que se detuvo encima de donde estaba el niño. Al ver de nuevo la estrella, se llenaron de inmensa alegría. Entraron en la casa y vieron al niño con María, su madre, y postrándose, lo adoraron. Después, abriendo sus cofres, le ofrecieron regalos: oro, incienso y mirra. Advertidos durante el sueño de que no volvieran a Herodes, regresaron a su tierra por otro camino.
+*Oración de la mañana*
+Amado Jesús, que en la humildad de Belén te hiciste presente entre nosotros, ilumina nuestra jornada con la luz de tu amor y tu misericordia. Ayúdanos a reconocerte en los pequeños detalles de la vida, y a adorarte en cada encuentro, cada gesto de bondad y cada palabra de aliento.
+Padre Celestial, con el amanecer de este nuevo día, te damos gracias por tu amor constante y por la promesa de salvación que nos has hecho a través de tu Hijo. Ayúdanos a buscar con determinación y fe, igual que los Magos, la presencia de Jesús en nuestras vidas y a ofrecerle, como ellos, los regalos de nuestro amor y servicio.
+Espíritu Santo, brújula divina que nos guías en nuestro camino, danos la sabiduría para discernir la dirección correcta en nuestras decisiones y la fortaleza para evitar los caminos que nos alejan de nuestra misión. Infunde en nosotros la alegría de los magos al encontrar a Jesús, para que con amor y gratitud, podamos compartir esa alegría con los demás.
+En la confianza de tu amor y misericordia, te lo pedimos. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="5" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5">
+    <row r="6" ht="150" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Yume</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>584146711206</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>15</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>domingo, 4 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 2, 1-12 Jesús nació en Belén de Judá, en tiempos del rey Herodes. Unos magos de oriente llegaron entonces a Jerusalén y preguntaron: “¿Dónde está el rey de los judíos que acaba de nacer? Porque vimos surgir su estrella y hemos venido a adorarlo”. Al enterarse de esto, el rey Herodes se sobresaltó y toda Jerusalén con él. Convocó entonces a los sumos sacerdotes y a los escribas del pueblo y les preguntó dónde tenía que nacer el Mesías. Ellos le contestaron: “En Belén de Judá, porque así lo ha escrito el profeta: Y tú, Belén, tierra de Judá, no eres en manera alguna la menor entre las ciudades ilustres de Judá, pues de ti saldrá un jefe, que será el pastor de mi pueblo, Israel”. Entonces Herodes llamó en secreto a los magos, para que le precisaran el tiempo en que se les había aparecido la estrella y los mandó a Belén, diciéndoles: “Vayan a averiguar cuidadosamente qué hay de ese niño y, cuando lo encuentren, avísenme para que yo también vaya a adorarlo”. Después de oír al rey, los magos se pusieron en camino, y de pronto la estrella que habían visto surgir, comenzó a guiarlos, hasta que se detuvo encima de donde estaba el niño. Al ver de nuevo la estrella, se llenaron de inmensa alegría. Entraron en la casa y vieron al niño con María, su madre, y postrándose, lo adoraron. Después, abriendo sus cofres, le ofrecieron regalos: oro, incienso y mirra. Advertidos durante el sueño de que no volvieran a Herodes, regresaron a su tierra por otro camino.
+*Oración de la mañana*
+Amado Jesús, que en la humildad de Belén te hiciste presente entre nosotros, ilumina nuestra jornada con la luz de tu amor y tu misericordia. Ayúdanos a reconocerte en los pequeños detalles de la vida, y a adorarte en cada encuentro, cada gesto de bondad y cada palabra de aliento.
+Padre Celestial, con el amanecer de este nuevo día, te damos gracias por tu amor constante y por la promesa de salvación que nos has hecho a través de tu Hijo. Ayúdanos a buscar con determinación y fe, igual que los Magos, la presencia de Jesús en nuestras vidas y a ofrecerle, como ellos, los regalos de nuestro amor y servicio.
+Espíritu Santo, brújula divina que nos guías en nuestro camino, danos la sabiduría para discernir la dirección correcta en nuestras decisiones y la fortaleza para evitar los caminos que nos alejan de nuestra misión. Infunde en nosotros la alegría de los magos al encontrar a Jesús, para que con amor y gratitud, podamos compartir esa alegría con los demás.
+En la confianza de tu amor y misericordia, te lo pedimos. Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="6" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mariangely</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>González</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>56972028078</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>mariangelygonzalez14@gmail.com</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>15</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>domingo, 4 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 2, 1-12 Jesús nació en Belén de Judá, en tiempos del rey Herodes. Unos magos de oriente llegaron entonces a Jerusalén y preguntaron: “¿Dónde está el rey de los judíos que acaba de nacer? Porque vimos surgir su estrella y hemos venido a adorarlo”. Al enterarse de esto, el rey Herodes se sobresaltó y toda Jerusalén con él. Convocó entonces a los sumos sacerdotes y a los escribas del pueblo y les preguntó dónde tenía que nacer el Mesías. Ellos le contestaron: “En Belén de Judá, porque así lo ha escrito el profeta: Y tú, Belén, tierra de Judá, no eres en manera alguna la menor entre las ciudades ilustres de Judá, pues de ti saldrá un jefe, que será el pastor de mi pueblo, Israel”. Entonces Herodes llamó en secreto a los magos, para que le precisaran el tiempo en que se les había aparecido la estrella y los mandó a Belén, diciéndoles: “Vayan a averiguar cuidadosamente qué hay de ese niño y, cuando lo encuentren, avísenme para que yo también vaya a adorarlo”. Después de oír al rey, los magos se pusieron en camino, y de pronto la estrella que habían visto surgir, comenzó a guiarlos, hasta que se detuvo encima de donde estaba el niño. Al ver de nuevo la estrella, se llenaron de inmensa alegría. Entraron en la casa y vieron al niño con María, su madre, y postrándose, lo adoraron. Después, abriendo sus cofres, le ofrecieron regalos: oro, incienso y mirra. Advertidos durante el sueño de que no volvieran a Herodes, regresaron a su tierra por otro camino.
+*Oración de la mañana*
+Amado Jesús, que en la humildad de Belén te hiciste presente entre nosotros, ilumina nuestra jornada con la luz de tu amor y tu misericordia. Ayúdanos a reconocerte en los pequeños detalles de la vida, y a adorarte en cada encuentro, cada gesto de bondad y cada palabra de aliento.
+Padre Celestial, con el amanecer de este nuevo día, te damos gracias por tu amor constante y por la promesa de salvación que nos has hecho a través de tu Hijo. Ayúdanos a buscar con determinación y fe, igual que los Magos, la presencia de Jesús en nuestras vidas y a ofrecerle, como ellos, los regalos de nuestro amor y servicio.
+Espíritu Santo, brújula divina que nos guías en nuestro camino, danos la sabiduría para discernir la dirección correcta en nuestras decisiones y la fortaleza para evitar los caminos que nos alejan de nuestra misión. Infunde en nosotros la alegría de los magos al encontrar a Jesús, para que con amor y gratitud, podamos compartir esa alegría con los demás.
+En la confianza de tu amor y misericordia, te lo pedimos. Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ALEJANDRO MANUEL</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LUCES</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34672527995</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>alejandroluces5515@gmail.com</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>domingo, 4 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 2, 1-12 Jesús nació en Belén de Judá, en tiempos del rey Herodes. Unos magos de oriente llegaron entonces a Jerusalén y preguntaron: “¿Dónde está el rey de los judíos que acaba de nacer? Porque vimos surgir su estrella y hemos venido a adorarlo”. Al enterarse de esto, el rey Herodes se sobresaltó y toda Jerusalén con él. Convocó entonces a los sumos sacerdotes y a los escribas del pueblo y les preguntó dónde tenía que nacer el Mesías. Ellos le contestaron: “En Belén de Judá, porque así lo ha escrito el profeta: Y tú, Belén, tierra de Judá, no eres en manera alguna la menor entre las ciudades ilustres de Judá, pues de ti saldrá un jefe, que será el pastor de mi pueblo, Israel”. Entonces Herodes llamó en secreto a los magos, para que le precisaran el tiempo en que se les había aparecido la estrella y los mandó a Belén, diciéndoles: “Vayan a averiguar cuidadosamente qué hay de ese niño y, cuando lo encuentren, avísenme para que yo también vaya a adorarlo”. Después de oír al rey, los magos se pusieron en camino, y de pronto la estrella que habían visto surgir, comenzó a guiarlos, hasta que se detuvo encima de donde estaba el niño. Al ver de nuevo la estrella, se llenaron de inmensa alegría. Entraron en la casa y vieron al niño con María, su madre, y postrándose, lo adoraron. Después, abriendo sus cofres, le ofrecieron regalos: oro, incienso y mirra. Advertidos durante el sueño de que no volvieran a Herodes, regresaron a su tierra por otro camino.
+*Oración de la mañana*
+Amado Jesús, que en la humildad de Belén te hiciste presente entre nosotros, ilumina nuestra jornada con la luz de tu amor y tu misericordia. Ayúdanos a reconocerte en los pequeños detalles de la vida, y a adorarte en cada encuentro, cada gesto de bondad y cada palabra de aliento.
+Padre Celestial, con el amanecer de este nuevo día, te damos gracias por tu amor constante y por la promesa de salvación que nos has hecho a través de tu Hijo. Ayúdanos a buscar con determinación y fe, igual que los Magos, la presencia de Jesús en nuestras vidas y a ofrecerle, como ellos, los regalos de nuestro amor y servicio.
+Espíritu Santo, brújula divina que nos guías en nuestro camino, danos la sabiduría para discernir la dirección correcta en nuestras decisiones y la fortaleza para evitar los caminos que nos alejan de nuestra misión. Infunde en nosotros la alegría de los magos al encontrar a Jesús, para que con amor y gratitud, podamos compartir esa alegría con los demás.
+En la confianza de tu amor y misericordia, te lo pedimos. Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Marianny</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gonzalez</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>56967970252</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>marikaro2508@gmail.com</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>domingo, 4 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 2, 1-12 Jesús nació en Belén de Judá, en tiempos del rey Herodes. Unos magos de oriente llegaron entonces a Jerusalén y preguntaron: “¿Dónde está el rey de los judíos que acaba de nacer? Porque vimos surgir su estrella y hemos venido a adorarlo”. Al enterarse de esto, el rey Herodes se sobresaltó y toda Jerusalén con él. Convocó entonces a los sumos sacerdotes y a los escribas del pueblo y les preguntó dónde tenía que nacer el Mesías. Ellos le contestaron: “En Belén de Judá, porque así lo ha escrito el profeta: Y tú, Belén, tierra de Judá, no eres en manera alguna la menor entre las ciudades ilustres de Judá, pues de ti saldrá un jefe, que será el pastor de mi pueblo, Israel”. Entonces Herodes llamó en secreto a los magos, para que le precisaran el tiempo en que se les había aparecido la estrella y los mandó a Belén, diciéndoles: “Vayan a averiguar cuidadosamente qué hay de ese niño y, cuando lo encuentren, avísenme para que yo también vaya a adorarlo”. Después de oír al rey, los magos se pusieron en camino, y de pronto la estrella que habían visto surgir, comenzó a guiarlos, hasta que se detuvo encima de donde estaba el niño. Al ver de nuevo la estrella, se llenaron de inmensa alegría. Entraron en la casa y vieron al niño con María, su madre, y postrándose, lo adoraron. Después, abriendo sus cofres, le ofrecieron regalos: oro, incienso y mirra. Advertidos durante el sueño de que no volvieran a Herodes, regresaron a su tierra por otro camino.
+*Oración de la mañana*
+Amado Jesús, que en la humildad de Belén te hiciste presente entre nosotros, ilumina nuestra jornada con la luz de tu amor y tu misericordia. Ayúdanos a reconocerte en los pequeños detalles de la vida, y a adorarte en cada encuentro, cada gesto de bondad y cada palabra de aliento.
+Padre Celestial, con el amanecer de este nuevo día, te damos gracias por tu amor constante y por la promesa de salvación que nos has hecho a través de tu Hijo. Ayúdanos a buscar con determinación y fe, igual que los Magos, la presencia de Jesús en nuestras vidas y a ofrecerle, como ellos, los regalos de nuestro amor y servicio.
+Espíritu Santo, brújula divina que nos guías en nuestro camino, danos la sabiduría para discernir la dirección correcta en nuestras decisiones y la fortaleza para evitar los caminos que nos alejan de nuestra misión. Infunde en nosotros la alegría de los magos al encontrar a Jesús, para que con amor y gratitud, podamos compartir esa alegría con los demás.
+En la confianza de tu amor y misericordia, te lo pedimos. Amén.</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/04012026.xlsx
+++ b/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/04012026.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,8 +529,6 @@
           <t>Alejandro</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
           <t>56994148421</t>
@@ -574,8 +572,6 @@
           <t>Omar</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
           <t>56973223070</t>
@@ -619,8 +615,6 @@
           <t>Mama</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
           <t>56971748545</t>
@@ -664,8 +658,6 @@
           <t>Victor</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
           <t>56931123918</t>
@@ -709,8 +701,6 @@
           <t>Yume</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
           <t>584146711206</t>
@@ -759,7 +749,6 @@
           <t>González</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
           <t>56972028078</t>
@@ -808,7 +797,6 @@
           <t>LUCES</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
           <t>34672527995</t>
@@ -857,7 +845,6 @@
           <t>Gonzalez</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
           <t>56967970252</t>
@@ -895,6 +882,55 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Milagros</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>González</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>56936637515</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Milagrosghurtado@gmail.com</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>domingo, 4 de enero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Mateo
+Mateo 2, 1-12 Jesús nació en Belén de Judá, en tiempos del rey Herodes. Unos magos de oriente llegaron entonces a Jerusalén y preguntaron: “¿Dónde está el rey de los judíos que acaba de nacer? Porque vimos surgir su estrella y hemos venido a adorarlo”. Al enterarse de esto, el rey Herodes se sobresaltó y toda Jerusalén con él. Convocó entonces a los sumos sacerdotes y a los escribas del pueblo y les preguntó dónde tenía que nacer el Mesías. Ellos le contestaron: “En Belén de Judá, porque así lo ha escrito el profeta: Y tú, Belén, tierra de Judá, no eres en manera alguna la menor entre las ciudades ilustres de Judá, pues de ti saldrá un jefe, que será el pastor de mi pueblo, Israel”. Entonces Herodes llamó en secreto a los magos, para que le precisaran el tiempo en que se les había aparecido la estrella y los mandó a Belén, diciéndoles: “Vayan a averiguar cuidadosamente qué hay de ese niño y, cuando lo encuentren, avísenme para que yo también vaya a adorarlo”. Después de oír al rey, los magos se pusieron en camino, y de pronto la estrella que habían visto surgir, comenzó a guiarlos, hasta que se detuvo encima de donde estaba el niño. Al ver de nuevo la estrella, se llenaron de inmensa alegría. Entraron en la casa y vieron al niño con María, su madre, y postrándose, lo adoraron. Después, abriendo sus cofres, le ofrecieron regalos: oro, incienso y mirra. Advertidos durante el sueño de que no volvieran a Herodes, regresaron a su tierra por otro camino.
+*Oración de la mañana*
+Amado Jesús, que en la humildad de Belén te hiciste presente entre nosotros, ilumina nuestra jornada con la luz de tu amor y tu misericordia. Ayúdanos a reconocerte en los pequeños detalles de la vida, y a adorarte en cada encuentro, cada gesto de bondad y cada palabra de aliento.
+Padre Celestial, con el amanecer de este nuevo día, te damos gracias por tu amor constante y por la promesa de salvación que nos has hecho a través de tu Hijo. Ayúdanos a buscar con determinación y fe, igual que los Magos, la presencia de Jesús en nuestras vidas y a ofrecerle, como ellos, los regalos de nuestro amor y servicio.
+Espíritu Santo, brújula divina que nos guías en nuestro camino, danos la sabiduría para discernir la dirección correcta en nuestras decisiones y la fortaleza para evitar los caminos que nos alejan de nuestra misión. Infunde en nosotros la alegría de los magos al encontrar a Jesús, para que con amor y gratitud, podamos compartir esa alegría con los demás.
+En la confianza de tu amor y misericordia, te lo pedimos. Amén.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
